--- a/cmd/trans/xlsx/k客户端 - cli.xlsx
+++ b/cmd/trans/xlsx/k客户端 - cli.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Go\src\xlsx_trans\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Go\src\github.com\scp1513\xlsx-trans\cmd\trans\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77389E7F-D432-4B62-A317-FFF341E9E6DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6331666-D398-4056-85F5-F77E3FF4AB78}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,16 +30,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
@@ -47,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -59,8 +62,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,7 +93,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56F8B6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,10 +131,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,50 +428,55 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1000" width="11.5703125"/>
+    <col min="1" max="1019" width="11.5703125" style="4"/>
+    <col min="1020" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4" xr:uid="{3B3D6BA8-EA73-470C-BE35-0CA836AEA578}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
